--- a/Task_3/processed/excels/Feb 2020-16-18 (1).xlsx
+++ b/Task_3/processed/excels/Feb 2020-16-18 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0A7578-475C-42A4-859B-70F863706B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B27829-B5D0-4DA2-8A38-07547E69EB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
   <si>
     <t>STATION</t>
   </si>
@@ -1010,34 +1010,7 @@
     <t>HYDRO</t>
   </si>
   <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Thermal - Coal Lignite</t>
-  </si>
-  <si>
-    <t>Thermal - Gas Naptha Diesel</t>
-  </si>
-  <si>
-    <t>Wind - Solar</t>
-  </si>
-  <si>
-    <t>IPP  - Lignite Thermal</t>
-  </si>
-  <si>
-    <t>IPP  - Gas Naptha Diesel</t>
-  </si>
-  <si>
-    <t>IPP  - Wind Solar Others</t>
-  </si>
-  <si>
-    <t>Thermal - Coal</t>
-  </si>
-  <si>
     <t>Central Sector</t>
-  </si>
-  <si>
-    <t>Thermal - Lignite</t>
   </si>
   <si>
     <t>Nuclear</t>
@@ -1048,6 +1021,33 @@
   <si>
     <t>Energy generation From 01-04-19
 To 29-02-2020</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Coal Lignite</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Naptha</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Co-generation</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1151,6 +1151,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1357,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1499,68 +1506,77 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1900,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E53" sqref="E53:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1918,1755 +1934,1788 @@
     <col min="8" max="16384" width="9.33203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58" t="s">
+    <row r="1" spans="1:7" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="56">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58">
+        <v>58.95</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0</v>
+      </c>
+      <c r="E2" s="59">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
+        <v>2</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="58">
+        <v>2</v>
+      </c>
+      <c r="D3" s="59">
+        <v>0</v>
+      </c>
+      <c r="E3" s="59">
+        <v>3.53</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56">
+        <v>3</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="58">
+        <v>150</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E4" s="59">
+        <v>154.18</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56">
+        <v>4</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="58">
+        <v>36</v>
+      </c>
+      <c r="D5" s="59">
+        <v>24.31</v>
+      </c>
+      <c r="E5" s="59">
+        <v>228.76</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="56">
+        <v>5</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="58">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="59">
+        <v>8.48</v>
+      </c>
+      <c r="E6" s="59">
+        <v>64.81</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
+        <v>6</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="58">
+        <v>60</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="59">
+        <v>144.34</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="56">
+        <v>7</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="58">
+        <v>175</v>
+      </c>
+      <c r="D8" s="59">
+        <v>24.31</v>
+      </c>
+      <c r="E8" s="59">
+        <v>454.84</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="58">
+        <v>180</v>
+      </c>
+      <c r="D9" s="59">
+        <v>56.74</v>
+      </c>
+      <c r="E9" s="59">
+        <v>509.25</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="56">
+        <v>9</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="58">
+        <v>100</v>
+      </c>
+      <c r="D10" s="59">
+        <v>32.82</v>
+      </c>
+      <c r="E10" s="59">
+        <v>259.92</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="56">
+        <v>10</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="58">
+        <v>40</v>
+      </c>
+      <c r="D11" s="59">
+        <v>4.53</v>
+      </c>
+      <c r="E11" s="59">
+        <v>97.45</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="56">
+        <v>11</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="58">
+        <v>35</v>
+      </c>
+      <c r="D12" s="59">
+        <v>20.21</v>
+      </c>
+      <c r="E12" s="59">
+        <v>83.88</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56">
+        <v>12</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="58">
+        <v>400</v>
+      </c>
+      <c r="D13" s="59">
+        <v>3.97</v>
+      </c>
+      <c r="E13" s="59">
+        <v>146.05000000000001</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56">
+        <v>13</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="58">
+        <v>60</v>
+      </c>
+      <c r="D14" s="59">
+        <v>38.21</v>
+      </c>
+      <c r="E14" s="59">
+        <v>241.82</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="56">
+        <v>14</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="58">
+        <v>2</v>
+      </c>
+      <c r="D15" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="E15" s="59">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="56">
+        <v>15</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="58">
+        <v>50</v>
+      </c>
+      <c r="D16" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="59">
+        <v>57.86</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56">
+        <v>16</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="58">
+        <v>200</v>
+      </c>
+      <c r="D17" s="59">
+        <v>7.06</v>
+      </c>
+      <c r="E17" s="59">
+        <v>196.86</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56">
+        <v>17</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="58">
+        <v>120</v>
+      </c>
+      <c r="D18" s="59">
+        <v>3.64</v>
+      </c>
+      <c r="E18" s="59">
+        <v>408.65</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56">
+        <v>18</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="58">
+        <v>8</v>
+      </c>
+      <c r="D19" s="59">
+        <v>0.85</v>
+      </c>
+      <c r="E19" s="59">
+        <v>45.47</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56">
+        <v>19</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="58">
+        <v>140</v>
+      </c>
+      <c r="D20" s="59">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E20" s="59">
+        <v>122.31</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56">
+        <v>20</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="58">
+        <v>6</v>
+      </c>
+      <c r="D21" s="59">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E21" s="59">
+        <v>326.02999999999997</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56">
+        <v>21</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="58">
+        <v>32</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="59">
+        <v>38.74</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56">
+        <v>22</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="58">
+        <v>20</v>
+      </c>
+      <c r="D23" s="59">
+        <v>13.93</v>
+      </c>
+      <c r="E23" s="59">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="56">
+        <v>23</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="58">
+        <v>30</v>
+      </c>
+      <c r="D24" s="59">
+        <v>5.04</v>
+      </c>
+      <c r="E24" s="59">
+        <v>87.02</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56">
+        <v>24</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="58">
+        <v>95</v>
+      </c>
+      <c r="D25" s="59">
+        <v>24.59</v>
+      </c>
+      <c r="E25" s="59">
+        <v>271.31</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="56">
+        <v>25</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="58">
+        <v>100</v>
+      </c>
+      <c r="D26" s="59">
+        <v>11.95</v>
+      </c>
+      <c r="E26" s="59">
+        <v>151.55000000000001</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="56">
+        <v>26</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="58">
+        <v>8</v>
+      </c>
+      <c r="D27" s="59">
+        <v>3.32</v>
+      </c>
+      <c r="E27" s="59">
+        <v>34.92</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56">
+        <v>27</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="58">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="59">
+        <v>1.54</v>
+      </c>
+      <c r="E28" s="59">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="56">
+        <v>28</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="58">
+        <v>30</v>
+      </c>
+      <c r="D29" s="59">
+        <v>1.54</v>
+      </c>
+      <c r="E29" s="59">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="56">
+        <v>29</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="58">
+        <v>15.7</v>
+      </c>
+      <c r="D30" s="59">
+        <v>1.69</v>
+      </c>
+      <c r="E30" s="59">
+        <v>129.83000000000001</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="56">
+        <v>30</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="58">
+        <v>60</v>
+      </c>
+      <c r="D31" s="59">
+        <v>0.13</v>
+      </c>
+      <c r="E31" s="59">
+        <v>49.23</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B32" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="58">
+        <v>0</v>
+      </c>
+      <c r="D32" s="59">
+        <v>0</v>
+      </c>
+      <c r="E32" s="59">
+        <v>0</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="56">
         <v>2</v>
       </c>
-      <c r="C2" s="49">
-        <v>58.95</v>
-      </c>
-      <c r="D2" s="50">
-        <v>0</v>
-      </c>
-      <c r="E2" s="50">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="B33" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="58">
+        <v>1050</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0</v>
+      </c>
+      <c r="E33" s="59">
+        <v>4087.87</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56">
+        <v>3</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="58">
+        <v>1440</v>
+      </c>
+      <c r="D34" s="59">
+        <v>133.65</v>
+      </c>
+      <c r="E34" s="59">
+        <v>5975.12</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56">
+        <v>4</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="58">
+        <v>1830</v>
+      </c>
+      <c r="D35" s="59">
+        <v>398.83</v>
+      </c>
+      <c r="E35" s="59">
+        <v>8214.14</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56">
+        <v>1</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="58">
+        <v>120</v>
+      </c>
+      <c r="D36" s="59">
+        <v>0</v>
+      </c>
+      <c r="E36" s="59">
+        <v>1.2</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B37" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="58">
+        <v>107.88</v>
+      </c>
+      <c r="D37" s="59">
+        <v>0</v>
+      </c>
+      <c r="E37" s="59">
+        <v>137.47999999999999</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="56">
         <v>3</v>
       </c>
-      <c r="C3" s="49">
+      <c r="B38" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="58">
+        <v>95</v>
+      </c>
+      <c r="D38" s="59">
+        <v>28</v>
+      </c>
+      <c r="E38" s="59">
+        <v>533.9</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="56">
+        <v>4</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="58">
+        <v>92</v>
+      </c>
+      <c r="D39" s="59">
+        <v>61.81</v>
+      </c>
+      <c r="E39" s="59">
+        <v>650.34</v>
+      </c>
+      <c r="F39" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="56">
+        <v>5</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="58">
+        <v>101</v>
+      </c>
+      <c r="D40" s="59">
+        <v>28.7</v>
+      </c>
+      <c r="E40" s="59">
+        <v>294.56</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="56">
+        <v>1</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="58">
+        <v>17.47</v>
+      </c>
+      <c r="D41" s="59">
+        <v>147.94</v>
+      </c>
+      <c r="E41" s="59">
+        <v>772.21</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="56">
         <v>2</v>
       </c>
-      <c r="D3" s="50">
-        <v>0</v>
-      </c>
-      <c r="E3" s="50">
-        <v>3.53</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="B42" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="58">
+        <v>0</v>
+      </c>
+      <c r="D42" s="59">
+        <v>0</v>
+      </c>
+      <c r="E42" s="59">
+        <v>0</v>
+      </c>
+      <c r="F42" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="56">
+        <v>1</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="58">
+        <v>600</v>
+      </c>
+      <c r="D43" s="59">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="E43" s="59">
+        <v>1859.72</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="56">
+        <v>2</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="58">
+        <v>250</v>
+      </c>
+      <c r="D44" s="59">
+        <v>0</v>
+      </c>
+      <c r="E44" s="59">
+        <v>763.94</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="56">
+        <v>1</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="58">
+        <v>196</v>
+      </c>
+      <c r="D45" s="59">
+        <v>0</v>
+      </c>
+      <c r="E45" s="59">
+        <v>0</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" s="50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="56">
+        <v>2</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="58">
+        <v>105.66</v>
+      </c>
+      <c r="D46" s="59">
+        <v>0</v>
+      </c>
+      <c r="E46" s="59">
+        <v>0</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="56">
         <v>3</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B47" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="58">
+        <v>106</v>
+      </c>
+      <c r="D47" s="59">
+        <v>0</v>
+      </c>
+      <c r="E47" s="59">
+        <v>0</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="56">
         <v>4</v>
       </c>
-      <c r="C4" s="49">
-        <v>150</v>
-      </c>
-      <c r="D4" s="50">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E4" s="50">
-        <v>154.18</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="B48" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="58">
+        <v>330.5</v>
+      </c>
+      <c r="D48" s="59">
+        <v>0</v>
+      </c>
+      <c r="E48" s="59">
+        <v>0</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="56">
         <v>5</v>
       </c>
-      <c r="C5" s="49">
-        <v>36</v>
-      </c>
-      <c r="D5" s="50">
-        <v>24.31</v>
-      </c>
-      <c r="E5" s="50">
-        <v>228.76</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="B49" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="58">
+        <v>113.2</v>
+      </c>
+      <c r="D49" s="59">
+        <v>123.41</v>
+      </c>
+      <c r="E49" s="59">
+        <v>1069.3499999999999</v>
+      </c>
+      <c r="F49" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K49" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="56">
         <v>6</v>
       </c>
-      <c r="C6" s="49">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="50">
-        <v>8.48</v>
-      </c>
-      <c r="E6" s="50">
-        <v>64.81</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="49">
-        <v>60</v>
-      </c>
-      <c r="D7" s="50">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="50">
-        <v>144.34</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="49">
-        <v>175</v>
-      </c>
-      <c r="D8" s="50">
-        <v>24.31</v>
-      </c>
-      <c r="E8" s="50">
-        <v>454.84</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="49">
-        <v>180</v>
-      </c>
-      <c r="D9" s="50">
-        <v>56.74</v>
-      </c>
-      <c r="E9" s="50">
-        <v>509.25</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="49">
-        <v>100</v>
-      </c>
-      <c r="D10" s="50">
-        <v>32.82</v>
-      </c>
-      <c r="E10" s="50">
-        <v>259.92</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="49">
-        <v>40</v>
-      </c>
-      <c r="D11" s="50">
-        <v>4.53</v>
-      </c>
-      <c r="E11" s="50">
-        <v>97.45</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
-        <v>11</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="49">
-        <v>35</v>
-      </c>
-      <c r="D12" s="50">
-        <v>20.21</v>
-      </c>
-      <c r="E12" s="50">
-        <v>83.88</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
-        <v>12</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="49">
-        <v>400</v>
-      </c>
-      <c r="D13" s="50">
-        <v>3.97</v>
-      </c>
-      <c r="E13" s="50">
-        <v>146.05000000000001</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47">
-        <v>13</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="49">
-        <v>60</v>
-      </c>
-      <c r="D14" s="50">
-        <v>38.21</v>
-      </c>
-      <c r="E14" s="50">
-        <v>241.82</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47">
-        <v>14</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="49">
+      <c r="B50" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="58">
+        <v>52.8</v>
+      </c>
+      <c r="D50" s="59">
+        <v>35.46</v>
+      </c>
+      <c r="E50" s="59">
+        <v>472.56</v>
+      </c>
+      <c r="F50" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="56">
+        <v>1</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="58">
+        <v>8470.86</v>
+      </c>
+      <c r="D51" s="59">
+        <v>424.54</v>
+      </c>
+      <c r="E51" s="59">
+        <v>9407.02</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K51" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="56">
         <v>2</v>
       </c>
-      <c r="D15" s="50">
-        <v>2.7</v>
-      </c>
-      <c r="E15" s="50">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47">
-        <v>15</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="49">
-        <v>50</v>
-      </c>
-      <c r="D16" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="E16" s="50">
-        <v>57.86</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
-        <v>16</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="49">
-        <v>200</v>
-      </c>
-      <c r="D17" s="50">
-        <v>7.06</v>
-      </c>
-      <c r="E17" s="50">
-        <v>196.86</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47">
-        <v>17</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="49">
-        <v>120</v>
-      </c>
-      <c r="D18" s="50">
-        <v>3.64</v>
-      </c>
-      <c r="E18" s="50">
-        <v>408.65</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47">
-        <v>18</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="49">
-        <v>8</v>
-      </c>
-      <c r="D19" s="50">
-        <v>0.85</v>
-      </c>
-      <c r="E19" s="50">
-        <v>45.47</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47">
-        <v>19</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="49">
-        <v>140</v>
-      </c>
-      <c r="D20" s="50">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="E20" s="50">
-        <v>122.31</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47">
-        <v>20</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="49">
-        <v>6</v>
-      </c>
-      <c r="D21" s="50">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="E21" s="50">
-        <v>326.02999999999997</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47">
-        <v>21</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="49">
-        <v>32</v>
-      </c>
-      <c r="D22" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="50">
-        <v>38.74</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47">
-        <v>22</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="49">
-        <v>20</v>
-      </c>
-      <c r="D23" s="50">
-        <v>13.93</v>
-      </c>
-      <c r="E23" s="50">
-        <v>75.540000000000006</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47">
-        <v>23</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="49">
-        <v>30</v>
-      </c>
-      <c r="D24" s="50">
-        <v>5.04</v>
-      </c>
-      <c r="E24" s="50">
-        <v>87.02</v>
-      </c>
-      <c r="F24" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47">
-        <v>24</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="49">
-        <v>95</v>
-      </c>
-      <c r="D25" s="50">
-        <v>24.59</v>
-      </c>
-      <c r="E25" s="50">
-        <v>271.31</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47">
-        <v>25</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="49">
-        <v>100</v>
-      </c>
-      <c r="D26" s="50">
-        <v>11.95</v>
-      </c>
-      <c r="E26" s="50">
-        <v>151.55000000000001</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47">
-        <v>26</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="49">
-        <v>8</v>
-      </c>
-      <c r="D27" s="50">
-        <v>3.32</v>
-      </c>
-      <c r="E27" s="50">
-        <v>34.92</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47">
-        <v>27</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="49">
-        <v>7.5</v>
-      </c>
-      <c r="D28" s="50">
-        <v>1.54</v>
-      </c>
-      <c r="E28" s="50">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47">
-        <v>28</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="49">
-        <v>30</v>
-      </c>
-      <c r="D29" s="50">
-        <v>1.54</v>
-      </c>
-      <c r="E29" s="50">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47">
-        <v>29</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="49">
-        <v>15.7</v>
-      </c>
-      <c r="D30" s="50">
-        <v>1.69</v>
-      </c>
-      <c r="E30" s="50">
-        <v>129.83000000000001</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
-        <v>30</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="49">
-        <v>60</v>
-      </c>
-      <c r="D31" s="50">
-        <v>0.13</v>
-      </c>
-      <c r="E31" s="50">
-        <v>49.23</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47">
-        <v>1</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="49">
-        <v>0</v>
-      </c>
-      <c r="D32" s="50">
-        <v>0</v>
-      </c>
-      <c r="E32" s="50">
-        <v>0</v>
-      </c>
-      <c r="F32" s="63" t="s">
+      <c r="B52" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="58">
+        <v>2663.21</v>
+      </c>
+      <c r="D52" s="59">
+        <v>486.25</v>
+      </c>
+      <c r="E52" s="59">
+        <v>4406.8</v>
+      </c>
+      <c r="F52" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47">
-        <v>2</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="49">
-        <v>1050</v>
-      </c>
-      <c r="D33" s="50">
-        <v>0</v>
-      </c>
-      <c r="E33" s="50">
-        <v>4087.87</v>
-      </c>
-      <c r="F33" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="56">
         <v>3</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="49">
-        <v>1440</v>
-      </c>
-      <c r="D34" s="50">
-        <v>133.65</v>
-      </c>
-      <c r="E34" s="50">
-        <v>5975.12</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47">
-        <v>4</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="49">
-        <v>1830</v>
-      </c>
-      <c r="D35" s="50">
-        <v>398.83</v>
-      </c>
-      <c r="E35" s="50">
-        <v>8214.14</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47">
-        <v>1</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="49">
-        <v>120</v>
-      </c>
-      <c r="D36" s="50">
-        <v>0</v>
-      </c>
-      <c r="E36" s="50">
-        <v>1.2</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47">
-        <v>2</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="49">
-        <v>107.88</v>
-      </c>
-      <c r="D37" s="50">
-        <v>0</v>
-      </c>
-      <c r="E37" s="50">
-        <v>137.47999999999999</v>
-      </c>
-      <c r="F37" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47">
-        <v>3</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="49">
-        <v>95</v>
-      </c>
-      <c r="D38" s="50">
-        <v>28</v>
-      </c>
-      <c r="E38" s="50">
-        <v>533.9</v>
-      </c>
-      <c r="F38" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47">
-        <v>4</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="49">
-        <v>92</v>
-      </c>
-      <c r="D39" s="50">
-        <v>61.81</v>
-      </c>
-      <c r="E39" s="50">
-        <v>650.34</v>
-      </c>
-      <c r="F39" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47">
-        <v>5</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="49">
-        <v>101</v>
-      </c>
-      <c r="D40" s="50">
-        <v>28.7</v>
-      </c>
-      <c r="E40" s="50">
-        <v>294.56</v>
-      </c>
-      <c r="F40" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="47">
-        <v>1</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="49">
-        <v>17.47</v>
-      </c>
-      <c r="D41" s="50">
-        <v>147.94</v>
-      </c>
-      <c r="E41" s="50">
-        <v>772.21</v>
-      </c>
-      <c r="F41" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="47">
-        <v>2</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="49">
-        <v>0</v>
-      </c>
-      <c r="D42" s="50">
-        <v>0</v>
-      </c>
-      <c r="E42" s="50">
-        <v>0</v>
-      </c>
-      <c r="F42" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47">
-        <v>1</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="49">
-        <v>600</v>
-      </c>
-      <c r="D43" s="50">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="E43" s="50">
-        <v>1859.72</v>
-      </c>
-      <c r="F43" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47">
-        <v>2</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="49">
-        <v>250</v>
-      </c>
-      <c r="D44" s="50">
-        <v>0</v>
-      </c>
-      <c r="E44" s="50">
-        <v>763.94</v>
-      </c>
-      <c r="F44" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="G44" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="47">
-        <v>1</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="49">
-        <v>196</v>
-      </c>
-      <c r="D45" s="50">
-        <v>0</v>
-      </c>
-      <c r="E45" s="50">
-        <v>0</v>
-      </c>
-      <c r="F45" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="47">
-        <v>2</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="49">
-        <v>105.66</v>
-      </c>
-      <c r="D46" s="50">
-        <v>0</v>
-      </c>
-      <c r="E46" s="50">
-        <v>0</v>
-      </c>
-      <c r="F46" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="47">
-        <v>3</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="49">
-        <v>106</v>
-      </c>
-      <c r="D47" s="50">
-        <v>0</v>
-      </c>
-      <c r="E47" s="50">
-        <v>0</v>
-      </c>
-      <c r="F47" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47">
-        <v>4</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="49">
-        <v>330.5</v>
-      </c>
-      <c r="D48" s="50">
-        <v>0</v>
-      </c>
-      <c r="E48" s="50">
-        <v>0</v>
-      </c>
-      <c r="F48" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="47">
-        <v>5</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="49">
-        <v>113.2</v>
-      </c>
-      <c r="D49" s="50">
-        <v>123.41</v>
-      </c>
-      <c r="E49" s="50">
-        <v>1069.3499999999999</v>
-      </c>
-      <c r="F49" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47">
-        <v>6</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="49">
-        <v>52.8</v>
-      </c>
-      <c r="D50" s="50">
-        <v>35.46</v>
-      </c>
-      <c r="E50" s="50">
-        <v>472.56</v>
-      </c>
-      <c r="F50" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="47">
-        <v>1</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="49">
-        <v>8470.86</v>
-      </c>
-      <c r="D51" s="50">
-        <v>424.54</v>
-      </c>
-      <c r="E51" s="50">
-        <v>9407.02</v>
-      </c>
-      <c r="F51" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G51" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="47">
-        <v>2</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="49">
-        <v>2663.21</v>
-      </c>
-      <c r="D52" s="50">
-        <v>486.25</v>
-      </c>
-      <c r="E52" s="50">
-        <v>4406.8</v>
-      </c>
-      <c r="F52" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="47">
-        <v>3</v>
-      </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C53" s="58">
         <v>688.4</v>
       </c>
-      <c r="D53" s="56">
+      <c r="D53" s="64">
         <v>184.80500000000001</v>
       </c>
       <c r="E53" s="65">
         <v>5312.19</v>
       </c>
       <c r="F53" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="56">
+        <v>4</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="58">
+        <v>266</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56">
+        <v>5</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="58">
+        <v>1074.8</v>
+      </c>
+      <c r="D55" s="68">
+        <v>616.01900000000001</v>
+      </c>
+      <c r="E55" s="69"/>
+      <c r="F55" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" s="62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="70">
+        <v>2600</v>
+      </c>
+      <c r="D56" s="59">
+        <v>319.83</v>
+      </c>
+      <c r="E56" s="59">
+        <v>12116.36</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="61" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="56">
+        <v>2</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="70">
+        <v>2000</v>
+      </c>
+      <c r="D57" s="59">
+        <v>333.8</v>
+      </c>
+      <c r="E57" s="59">
+        <v>9442.08</v>
+      </c>
+      <c r="F57" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="56">
+        <v>3</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="70">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="59">
+        <v>234.39</v>
+      </c>
+      <c r="E58" s="59">
+        <v>4111.7299999999996</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="56">
         <v>4</v>
       </c>
-      <c r="B54" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="49">
-        <v>266</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G54" s="63" t="s">
+      <c r="B59" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="70">
+        <v>1000</v>
+      </c>
+      <c r="D59" s="59">
+        <v>221.65</v>
+      </c>
+      <c r="E59" s="59">
+        <v>4664.03</v>
+      </c>
+      <c r="F59" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="61" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="56">
         <v>5</v>
       </c>
-      <c r="B55" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="49">
-        <v>1074.8</v>
-      </c>
-      <c r="D55" s="52">
-        <v>616.01900000000001</v>
-      </c>
-      <c r="E55" s="51"/>
-      <c r="F55" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="63" t="s">
+      <c r="B60" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="70">
+        <v>1500</v>
+      </c>
+      <c r="D60" s="59">
+        <v>197.31</v>
+      </c>
+      <c r="E60" s="59">
+        <v>4591.3500000000004</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" s="61" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="53">
-        <v>1</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="54">
-        <v>2600</v>
-      </c>
-      <c r="D56" s="50">
-        <v>319.83</v>
-      </c>
-      <c r="E56" s="50">
-        <v>12116.36</v>
-      </c>
-      <c r="F56" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="53">
-        <v>2</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="54">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="56">
+        <v>6</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="70">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="59">
+        <v>257.57</v>
+      </c>
+      <c r="E61" s="59">
+        <v>3194.51</v>
+      </c>
+      <c r="F61" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="56">
+        <v>7</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="56">
+        <v>2400</v>
+      </c>
+      <c r="D62" s="59">
+        <v>333.81</v>
+      </c>
+      <c r="E62" s="59">
+        <v>3396.9</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="56">
+        <v>8</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="70">
+        <v>1470</v>
+      </c>
+      <c r="D63" s="59">
+        <v>134.38</v>
+      </c>
+      <c r="E63" s="59">
+        <v>6233.42</v>
+      </c>
+      <c r="F63" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="56">
+        <v>9</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="70">
+        <v>420</v>
+      </c>
+      <c r="D64" s="59">
+        <v>144.65</v>
+      </c>
+      <c r="E64" s="59">
+        <v>2567.7199999999998</v>
+      </c>
+      <c r="F64" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G64" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="56">
+        <v>10</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="70">
+        <v>500</v>
+      </c>
+      <c r="D65" s="59">
+        <v>96.85</v>
+      </c>
+      <c r="E65" s="59">
+        <v>1604.15</v>
+      </c>
+      <c r="F65" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="56">
+        <v>11</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="70">
+        <v>500</v>
+      </c>
+      <c r="D66" s="59">
+        <v>234.85</v>
+      </c>
+      <c r="E66" s="59">
+        <v>234.85</v>
+      </c>
+      <c r="F66" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="56">
+        <v>10</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="58">
+        <v>440</v>
+      </c>
+      <c r="D67" s="59">
+        <v>157.72999999999999</v>
+      </c>
+      <c r="E67" s="59">
+        <v>12793.72</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="56">
+        <v>11</v>
+      </c>
+      <c r="B68" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="58">
+        <v>880</v>
+      </c>
+      <c r="D68" s="59">
+        <v>58.87</v>
+      </c>
+      <c r="E68" s="59">
+        <v>4760.74</v>
+      </c>
+      <c r="F68" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="56">
+        <v>12</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="58">
         <v>2000</v>
       </c>
-      <c r="D57" s="50">
-        <v>333.8</v>
-      </c>
-      <c r="E57" s="50">
-        <v>9442.08</v>
-      </c>
-      <c r="F57" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="53">
-        <v>3</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="54">
-        <v>1000</v>
-      </c>
-      <c r="D58" s="50">
-        <v>234.39</v>
-      </c>
-      <c r="E58" s="50">
-        <v>4111.7299999999996</v>
-      </c>
-      <c r="F58" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53">
-        <v>4</v>
-      </c>
-      <c r="B59" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="54">
-        <v>1000</v>
-      </c>
-      <c r="D59" s="50">
-        <v>221.65</v>
-      </c>
-      <c r="E59" s="50">
-        <v>4664.03</v>
-      </c>
-      <c r="F59" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53">
-        <v>5</v>
-      </c>
-      <c r="B60" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="54">
-        <v>1500</v>
-      </c>
-      <c r="D60" s="50">
-        <v>197.31</v>
-      </c>
-      <c r="E60" s="50">
-        <v>4591.3500000000004</v>
-      </c>
-      <c r="F60" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="53">
-        <v>6</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="54">
-        <v>1000</v>
-      </c>
-      <c r="D61" s="50">
-        <v>257.57</v>
-      </c>
-      <c r="E61" s="50">
-        <v>3194.51</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="53">
-        <v>7</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="55">
-        <v>2400</v>
-      </c>
-      <c r="D62" s="50">
-        <v>333.81</v>
-      </c>
-      <c r="E62" s="50">
-        <v>3396.9</v>
-      </c>
-      <c r="F62" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="53">
-        <v>8</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="54">
-        <v>1470</v>
-      </c>
-      <c r="D63" s="50">
-        <v>134.38</v>
-      </c>
-      <c r="E63" s="50">
-        <v>6233.42</v>
-      </c>
-      <c r="F63" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G63" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="53">
-        <v>9</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="54">
-        <v>420</v>
-      </c>
-      <c r="D64" s="50">
-        <v>144.65</v>
-      </c>
-      <c r="E64" s="50">
-        <v>2567.7199999999998</v>
-      </c>
-      <c r="F64" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="53">
+      <c r="D69" s="59">
+        <v>0</v>
+      </c>
+      <c r="E69" s="59">
+        <v>7008.03</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G69" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="56">
+        <v>13</v>
+      </c>
+      <c r="B70" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="58">
         <v>10</v>
       </c>
-      <c r="B65" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="54">
-        <v>500</v>
-      </c>
-      <c r="D65" s="50">
-        <v>96.85</v>
-      </c>
-      <c r="E65" s="50">
-        <v>1604.15</v>
-      </c>
-      <c r="F65" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G65" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="53">
-        <v>11</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="54">
-        <v>500</v>
-      </c>
-      <c r="D66" s="50">
-        <v>234.85</v>
-      </c>
-      <c r="E66" s="50">
-        <v>234.85</v>
-      </c>
-      <c r="F66" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G66" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53">
-        <v>10</v>
-      </c>
-      <c r="B67" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="49">
-        <v>440</v>
-      </c>
-      <c r="D67" s="50">
-        <v>157.72999999999999</v>
-      </c>
-      <c r="E67" s="50">
-        <v>12793.72</v>
-      </c>
-      <c r="F67" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="G67" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53">
-        <v>11</v>
-      </c>
-      <c r="B68" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="49">
-        <v>880</v>
-      </c>
-      <c r="D68" s="50">
-        <v>58.87</v>
-      </c>
-      <c r="E68" s="50">
-        <v>4760.74</v>
-      </c>
-      <c r="F68" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="G68" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
-        <v>12</v>
-      </c>
-      <c r="B69" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="49">
-        <v>2000</v>
-      </c>
-      <c r="D69" s="50">
-        <v>0</v>
-      </c>
-      <c r="E69" s="50">
-        <v>7008.03</v>
-      </c>
-      <c r="F69" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="G69" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53">
-        <v>13</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="49">
-        <v>10</v>
-      </c>
-      <c r="D70" s="50">
+      <c r="D70" s="59">
         <v>1.21</v>
       </c>
-      <c r="E70" s="50">
+      <c r="E70" s="59">
         <v>12.94</v>
       </c>
-      <c r="F70" s="63" t="s">
+      <c r="F70" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="63" t="s">
-        <v>158</v>
+      <c r="G70" s="61" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="53">
+      <c r="A71" s="56">
         <v>14</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="58">
         <v>887.5</v>
       </c>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="63" t="s">
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="63" t="s">
-        <v>158</v>
+      <c r="G71" s="61" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="53">
+      <c r="A72" s="56">
         <v>15</v>
       </c>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="49">
+      <c r="C72" s="58">
         <v>1200</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="63" t="s">
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="63" t="s">
-        <v>158</v>
+      <c r="G72" s="61" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="53">
+      <c r="A73" s="56">
         <v>16</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="49">
+      <c r="C73" s="58">
         <v>249.9</v>
       </c>
-      <c r="D73" s="50">
-        <v>0</v>
-      </c>
-      <c r="E73" s="50">
-        <v>0</v>
-      </c>
-      <c r="F73" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="G73" s="63" t="s">
-        <v>158</v>
+      <c r="D73" s="59">
+        <v>0</v>
+      </c>
+      <c r="E73" s="59">
+        <v>0</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="61" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="53">
+      <c r="A74" s="56">
         <v>17</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="58">
         <v>200</v>
       </c>
-      <c r="D74" s="50">
-        <v>0</v>
-      </c>
-      <c r="E74" s="50">
-        <v>0</v>
-      </c>
-      <c r="F74" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="G74" s="63" t="s">
-        <v>158</v>
+      <c r="D74" s="59">
+        <v>0</v>
+      </c>
+      <c r="E74" s="59">
+        <v>0</v>
+      </c>
+      <c r="F74" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="61" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="53">
+      <c r="A75" s="56">
         <v>18</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="49">
+      <c r="C75" s="58">
         <v>250</v>
       </c>
-      <c r="D75" s="50">
-        <v>0</v>
-      </c>
-      <c r="E75" s="50">
-        <v>0</v>
-      </c>
-      <c r="F75" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75" s="63" t="s">
-        <v>158</v>
+      <c r="D75" s="59">
+        <v>0</v>
+      </c>
+      <c r="E75" s="59">
+        <v>0</v>
+      </c>
+      <c r="F75" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" s="61" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="53">
+      <c r="A76" s="56">
         <v>19</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="49">
+      <c r="C76" s="58">
         <v>52</v>
       </c>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="G76" s="63" t="s">
-        <v>158</v>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" s="61" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="64"/>
-      <c r="D80" s="64"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
     </row>
     <row r="81" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
